--- a/pred_ohlcv/54_21/2019-10-30 DVP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 DVP ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>-985755.7974</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-985755.7974</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-745466.9065</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-614178.6465</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-625185.8348000001</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-625185.8348000001</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-623196.3785000001</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-720858.4516000001</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-719269.7413000001</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-719269.7413000001</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-719269.7413000001</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-568138.7509000001</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-568138.7509000001</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-627705.1709000001</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-627705.1709000001</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-627705.1709000001</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-627705.1709000001</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>18545.62269999983</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>18545.62269999983</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>17986.79429999983</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>25722.79429999983</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-296706.0566000002</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-296706.0566000002</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-296706.0566000002</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-296706.0566000002</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-296706.0566000002</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-296696.0566000002</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-296696.0566000002</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-313313.6183000002</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-265248.1642000002</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-265248.1642000002</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-265248.1642000002</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-265248.1642000002</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-265248.1642000002</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-265248.1642000002</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-265248.1642000002</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-265248.1642000002</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-265248.1642000002</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-265248.1642000002</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-265248.1642000002</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-204908.4991000002</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-204908.4991000002</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-204908.4991000002</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-245229.9480000003</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-245229.9480000003</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-210797.3067000002</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-210797.3067000002</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-230797.3067000002</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-257270.4853000002</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-1377992.2654</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-1671631.2017</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-1892775.757000001</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-3097017.1826</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-3097017.1826</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-3097007.1826</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-3749291.4326</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-3749291.4326</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-3657000.666600001</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-3657000.666600001</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-3656800.666600001</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-3656800.666600001</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-3656800.666600001</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-3372942.149800001</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-1782598.071919532</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-1087960.033719532</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-1417781.859319532</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-919782.9096195323</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-774531.1207195322</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-774531.1207195322</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-774531.1207195322</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-807756.5366195323</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-807756.5366195323</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-807756.5366195323</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-582304.7069195323</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-582304.7069195323</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-582304.7069195323</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-551227.1806195322</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-490823.0764195322</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-490823.0764195322</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-490823.0764195322</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-608306.2489195322</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-382105.1422195322</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-361637.6381195321</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>6084706.121298378</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>5853389.713498378</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>5011382.950198377</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>5401881.707098378</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>5401881.707098378</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>5401881.707098378</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>5644203.857298378</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>5644203.857298378</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>5013459.461898378</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>5013459.461898378</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>5013459.461898378</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>5013459.461898378</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>5013459.461898378</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>4909249.961998378</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>4909249.961998378</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>4968528.954598378</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>4943808.255698378</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>4943808.255698378</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>5102006.260898379</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>4722601.518898379</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>4722601.518898379</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>4721034.726498379</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>4823851.891798379</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>4823851.891798379</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>4823851.891798379</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>4885114.036298379</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>4885114.036298379</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>4746414.936598379</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>2757759.74939838</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>2298547.036498379</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>2298547.036498379</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>2293272.226298379</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>2293272.226298379</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>2255295.95939838</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>2255942.124798379</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>1578882.501198379</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>1578882.501198379</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>1418241.845598379</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>1418241.845598379</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>1418241.845598379</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>1418241.845598379</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-30 DVP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 DVP ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>-985755.7974</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-985755.7974</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-983755.7974</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-983755.7974</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-983755.7974</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-983755.7974</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-983755.7974</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-983755.7974</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-983755.7974</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-983755.7974</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-983755.7974</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-983755.7974</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-983755.7974</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-983755.7974</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-983755.7974</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-983755.7974</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-820769.3178000001</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-820769.3178000001</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-712291.8736</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-711291.8736</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-745466.9065</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-614178.6465</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-625185.8348000001</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-625185.8348000001</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-623196.3785000001</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-720858.4516000001</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-719269.7413000001</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-719269.7413000001</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-719269.7413000001</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-568138.7509000001</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-568138.7509000001</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-627705.1709000001</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-627705.1709000001</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-627705.1709000001</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-627705.1709000001</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>18545.62269999983</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>18545.62269999983</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>17986.79429999983</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>25722.79429999983</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-296706.0566000002</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-296706.0566000002</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-296706.0566000002</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-296706.0566000002</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-296706.0566000002</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-296696.0566000002</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-296696.0566000002</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-313313.6183000002</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-265248.1642000002</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-265248.1642000002</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-265248.1642000002</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-265248.1642000002</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-265248.1642000002</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-265248.1642000002</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-265248.1642000002</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-265248.1642000002</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-265248.1642000002</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-265248.1642000002</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-265248.1642000002</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-204908.4991000002</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-204908.4991000002</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-204908.4991000002</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-245229.9480000003</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-245229.9480000003</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-210797.3067000002</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-210797.3067000002</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-230797.3067000002</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-257270.4853000002</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-1377992.2654</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-1671631.2017</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-1892775.757000001</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-3097017.1826</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-3097017.1826</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-3097007.1826</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-3749291.4326</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-3749291.4326</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-3657000.666600001</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-3657000.666600001</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-3656800.666600001</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-3656800.666600001</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-3656800.666600001</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-3372942.149800001</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-1782598.071919532</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-1087960.033719532</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-1417781.859319532</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-919782.9096195323</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-774531.1207195322</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-774531.1207195322</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-774531.1207195322</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-807756.5366195323</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-807756.5366195323</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-807756.5366195323</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-582304.7069195323</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-582304.7069195323</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-582304.7069195323</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-551227.1806195322</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-490823.0764195322</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-490823.0764195322</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-490823.0764195322</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-608306.2489195322</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-382105.1422195322</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-361637.6381195321</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>6517516.276498378</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>6123752.016098378</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>6123752.016098378</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>6084706.121298378</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>5853389.713498378</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>5853389.713498378</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>6289632.315298378</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>5752435.603498379</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>5770866.210598378</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>5770866.210598378</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>4640559.183898378</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>4818799.145798378</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>5011382.950198377</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>5011382.950198377</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>5011382.950198377</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>5011382.950198377</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>5011382.950198377</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>5011382.950198377</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>5278436.795598377</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>5401881.707098378</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>5401881.707098378</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>5401881.707098378</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>5644203.857298378</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>5644203.857298378</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>5013459.461898378</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>5013459.461898378</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>5013459.461898378</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>5013459.461898378</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>5013459.461898378</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>4909249.961998378</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>4900591.272398379</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>5102006.260898379</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>4722601.518898379</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>4722601.518898379</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>4721034.726498379</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>4721034.726498379</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>4721034.726498379</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>4721034.726498379</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>4721034.726498379</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>4823851.891798379</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>4823851.891798379</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>4823851.891798379</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>4885114.036298379</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>4885114.036298379</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>4746414.936598379</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>4639754.857698379</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>2757759.74939838</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>2298547.036498379</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>2298547.036498379</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>2293272.226298379</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>2293272.226298379</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>2255295.95939838</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>2255942.124798379</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>1578882.501198379</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>1578882.501198379</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>1418241.845598379</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>1418241.845598379</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>1418241.845598379</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>1418241.845598379</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
